--- a/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC30_Search_Typeahead.xlsx
+++ b/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC30_Search_Typeahead.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_IE_Support\Input_files\Actual_testcases\Kaman\Prod\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EC172A-6F50-4358-8FAD-42A4CD488D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B5DB16-01C9-4F0E-B1B6-6E9EAF73332C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>TestCase</t>
   </si>
@@ -74,10 +74,22 @@
     <t>$BaseURL</t>
   </si>
   <si>
+    <t>WAIT</t>
+  </si>
+  <si>
     <t>CSS</t>
   </si>
   <si>
-    <t>CLICK_PRE_ENTERTEXT</t>
+    <t>CLICK</t>
+  </si>
+  <si>
+    <t>EleType1</t>
+  </si>
+  <si>
+    <t>EleType2</t>
+  </si>
+  <si>
+    <t>JSElement</t>
   </si>
 </sst>
 </file>
@@ -493,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection activeCell="A7" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -540,14 +552,14 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -560,24 +572,33 @@
         <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -590,10 +611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -632,6 +653,22 @@
       </c>
       <c r="B4" s="3" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
